--- a/210621 - AG thesis/Analyses/qPCR analysis/Excel_analyses/eff_PCA_in.xlsx
+++ b/210621 - AG thesis/Analyses/qPCR analysis/Excel_analyses/eff_PCA_in.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TL\Work\Research\Dr. Uyaguari\AG\210621 - AG thesis\Analyses\qPCR analysis\Excel_analyses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TL\Work\Research\Dr. Uyaguari\AG\AG-TL-MUD-human-enteric-viruses-quantitation\210621 - AG thesis\Analyses\qPCR analysis\Excel_analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70822B49-8284-4FEE-B389-4428C6F48552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7E1C0E-B099-4C1B-9E90-4A1BC8DD9054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,7 +632,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="77" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N10" sqref="N10"/>
+      <selection pane="topRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
